--- a/实验数据分析.xlsx
+++ b/实验数据分析.xlsx
@@ -46,7 +46,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,9 +62,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,15 +91,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,25 +122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,30 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +175,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +208,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,21 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +428,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -472,26 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,153 +475,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,7 +823,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -841,19 +834,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1.01539874267147</c:v>
+                  <c:v>-3.90928515928516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.851896257966808</c:v>
+                  <c:v>-3.27980059317221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.738829893808856</c:v>
+                  <c:v>-2.84449509116409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.93114871519384</c:v>
+                  <c:v>-3.58492255349628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.865571453806748</c:v>
+                  <c:v>-3.33245009715598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,15 +1590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1048385</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1622,7 +1615,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="961390" y="2070100"/>
+          <a:off x="742315" y="1584325"/>
           <a:ext cx="4287520" cy="3507740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1641,13 +1634,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1655,7 +1648,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5321300" y="301625"/>
+        <a:off x="5321300" y="292100"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1956,13 +1949,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="5" width="12.625"/>
     <col min="6" max="6" width="13.75"/>
@@ -1999,16 +1992,16 @@
         <v>169</v>
       </c>
       <c r="D2">
-        <f>20/(A2)</f>
-        <v>0.454545454545455</v>
+        <f>77/A2</f>
+        <v>1.75</v>
       </c>
       <c r="E2">
-        <f>20/B2</f>
-        <v>0.253164556962025</v>
+        <f>77/B2</f>
+        <v>0.974683544303797</v>
       </c>
       <c r="F2">
         <f>(E2-D2)/(C2*10^(-3))</f>
-        <v>-1.19160294428065</v>
+        <v>-4.58767133548049</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2022,16 +2015,16 @@
         <v>242</v>
       </c>
       <c r="D3">
-        <f>20/(A3)</f>
-        <v>0.384615384615385</v>
+        <f>77/A3</f>
+        <v>1.48076923076923</v>
       </c>
       <c r="E3">
-        <f>20/B3</f>
-        <v>0.138888888888889</v>
+        <f>77/B3</f>
+        <v>0.534722222222222</v>
       </c>
       <c r="F3">
-        <f>(E3-D3)/(C3*10^(-3))</f>
-        <v>-1.01539874267147</v>
+        <f t="shared" ref="F2:F7" si="0">(E3-D3)/(C3*10^(-3))</f>
+        <v>-3.90928515928516</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2045,16 +2038,16 @@
         <v>230</v>
       </c>
       <c r="D4">
-        <f>20/(A4)</f>
-        <v>0.384615384615385</v>
+        <f>77/A4</f>
+        <v>1.48076923076923</v>
       </c>
       <c r="E4">
-        <f>20/B4</f>
-        <v>0.188679245283019</v>
+        <f>77/B4</f>
+        <v>0.726415094339623</v>
       </c>
       <c r="F4">
-        <f>(E4-D4)/(C4*10^(-3))</f>
-        <v>-0.851896257966808</v>
+        <f t="shared" si="0"/>
+        <v>-3.27980059317221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2068,16 +2061,16 @@
         <v>248</v>
       </c>
       <c r="D5">
-        <f>20/(A5)</f>
-        <v>0.357142857142857</v>
+        <f>77/A5</f>
+        <v>1.375</v>
       </c>
       <c r="E5">
-        <f>20/B5</f>
-        <v>0.173913043478261</v>
+        <f>77/B5</f>
+        <v>0.669565217391304</v>
       </c>
       <c r="F5">
-        <f>(E5-D5)/(C5*10^(-3))</f>
-        <v>-0.738829893808856</v>
+        <f t="shared" si="0"/>
+        <v>-2.84449509116409</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2091,16 +2084,16 @@
         <v>219</v>
       </c>
       <c r="D6">
-        <f>20/(A6)</f>
-        <v>0.4</v>
+        <f>77/A6</f>
+        <v>1.54</v>
       </c>
       <c r="E6">
-        <f>20/B6</f>
-        <v>0.196078431372549</v>
+        <f>77/B6</f>
+        <v>0.754901960784314</v>
       </c>
       <c r="F6">
-        <f>(E6-D6)/(C6*10^(-3))</f>
-        <v>-0.93114871519384</v>
+        <f t="shared" si="0"/>
+        <v>-3.58492255349628</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2114,16 +2107,39 @@
         <v>222</v>
       </c>
       <c r="D7">
-        <f>20/(A7)</f>
-        <v>0.392156862745098</v>
+        <f>77/A7</f>
+        <v>1.50980392156863</v>
       </c>
       <c r="E7">
-        <f>20/B7</f>
-        <v>0.2</v>
+        <f>77/B7</f>
+        <v>0.77</v>
       </c>
       <c r="F7">
-        <f>(E7-D7)/(C7*10^(-3))</f>
-        <v>-0.865571453806748</v>
+        <f t="shared" si="0"/>
+        <v>-3.33245009715598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>205</v>
+      </c>
+      <c r="D8">
+        <f>77/A8</f>
+        <v>1.203125</v>
+      </c>
+      <c r="E8">
+        <f>77/B8</f>
+        <v>0.719626168224299</v>
+      </c>
+      <c r="F8">
+        <f>(E8-D8)/(C8*10^(-3))</f>
+        <v>-2.35853088671074</v>
       </c>
     </row>
   </sheetData>
